--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\This is the one\qa-job-fair\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F810497D-B787-4DAB-ABEF-15F52F8EF1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="2220" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Bug</t>
   </si>
@@ -20,23 +29,130 @@
   </si>
   <si>
     <t>Fix</t>
+  </si>
+  <si>
+    <t>Shuffle deck not implemented</t>
+  </si>
+  <si>
+    <t>Shuffle deck does nothing so both players always start with same order of cards</t>
+  </si>
+  <si>
+    <t>Implements ShuffleDeck or have GenerateCards return a shuffled deck,shuffle deck should also take a deck as a parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerDamage reset </t>
+  </si>
+  <si>
+    <t>PlayerDamage doesn’t reset after turn end</t>
+  </si>
+  <si>
+    <t>Implement ResetDamage() function so it resets the damage of the player to 0</t>
+  </si>
+  <si>
+    <t>findNumberInHand logic error</t>
+  </si>
+  <si>
+    <t>It returns false if it finds the card in the players hand which is not the intended use of the function</t>
+  </si>
+  <si>
+    <t>Change the logic just so the thing returned is changed</t>
+  </si>
+  <si>
+    <t>BoostCard AttackStatus</t>
+  </si>
+  <si>
+    <t>AttackingStatus becomes true if we play a boost card without playing an attacking card</t>
+  </si>
+  <si>
+    <t>Remove the line in playCard() where attackingStatus=true in case of playing BoostAttackCard</t>
+  </si>
+  <si>
+    <t>playCardInDefense AttackStatus</t>
+  </si>
+  <si>
+    <t>When playing AttackCard in defense it puts us in attack mode</t>
+  </si>
+  <si>
+    <t>CardToPlay Missing</t>
+  </si>
+  <si>
+    <t>Catch all exceptions and not only NumberFormatException</t>
+  </si>
+  <si>
+    <t>PlayCardinDefense CardRemains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The card we played in defense is not removed from our hand </t>
+  </si>
+  <si>
+    <t>Add a line that removes the card that we played from our hand</t>
+  </si>
+  <si>
+    <t>TakeDamage error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TakeDamage() function sets our health to the damage </t>
+  </si>
+  <si>
+    <t>Make it so the damge is subtracted from our health</t>
+  </si>
+  <si>
+    <t>AttackCard illegal</t>
+  </si>
+  <si>
+    <t>AttackCard can be made with illegal numbers(outside of the range 3-7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make the constructor of the Card class private and make a public function that checks the conditions and if they are met calles the constructor for the Card class </t>
+  </si>
+  <si>
+    <t>Drawing empty</t>
+  </si>
+  <si>
+    <t>DrawCard doesn’t check if deck is empty and so when we draw we get an IndexOutOfbounds Exception</t>
+  </si>
+  <si>
+    <t>Add a line that checks if deck is empty and doesnt add card to hand.</t>
+  </si>
+  <si>
+    <t>CurrentPlayerUnderAttack options</t>
+  </si>
+  <si>
+    <t>When we check if the player has defensive options we check using the last card played to see if he can block but we should be using the opponents damage</t>
+  </si>
+  <si>
+    <t>Change the logic of checkForProtectionPossibilitiesInHand() so it takes the oponents damage as a parameter and does the check using that</t>
+  </si>
+  <si>
+    <t>Change it so playCardInDefense doesn’t set AttackStatus to true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the card we input is not present or is an integer that is not a card the function throws an error that is not caught </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -44,7 +160,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -54,35 +170,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -272,39 +400,175 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.25"/>
-    <col customWidth="1" min="2" max="2" width="36.13"/>
-    <col customWidth="1" min="3" max="3" width="41.63"/>
+    <col min="1" max="1" width="36.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>